--- a/cypress/fixtures/example.xlsx
+++ b/cypress/fixtures/example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="36">
   <si>
     <t xml:space="preserve">Grafik </t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Dni miesiąca</t>
+  </si>
+  <si>
+    <t>Pracownicy dzienni</t>
   </si>
   <si>
     <t/>
@@ -122,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -132,7 +135,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -202,22 +204,22 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,310 +567,310 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>10.0</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>24.0</v>
@@ -978,4206 +980,4206 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CD5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CG5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CI5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CM5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CN5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CO5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CQ5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CU5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="S6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="AF6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="AH6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="T7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="AG7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AJ7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="L8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="N8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="3" t="s">
+      <c r="S8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8" s="3" t="s">
+      <c r="V8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V8" s="3" t="s">
+      <c r="Y8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI9" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ9" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="U10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="X10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="AF10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="AJ10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="AE11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AH11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG13" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="R14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Y14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="4" t="s">
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="AF14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="AH14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ14" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BN15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BU15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BV15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CG15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CH15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CI15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CJ15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CM15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CN15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CO15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CQ15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CR15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CU15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="AG18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AJ18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="T19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="AC19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="AG19" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG20" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI20" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="W21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="AE21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ21" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="S22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V22" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W22" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X22" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG22" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X24" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC24" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD24" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG24" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BM26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BN26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BU26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BV26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CG26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CH26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CI26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CJ26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CM26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CN26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CO26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CQ26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CR26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CU26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BM27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BN27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BU27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BV27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CG27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CH27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CI27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CJ27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CM27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CN27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CO27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CQ27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CR27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CU27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BM28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BN28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BU28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BV28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BX28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CG28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CH28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CI28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CJ28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CM28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CN28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CO28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CQ28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CR28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CU28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BM29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BN29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BU29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BV29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BX29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CG29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CH29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CI29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CJ29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CM29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CN29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CO29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CQ29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CR29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CU29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BM30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BN30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BU30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BV30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BX30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CD30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CG30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CH30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CI30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CJ30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CM30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CN30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CO30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CQ30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CR30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CU30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1"/>
